--- a/Results/YFJS.xlsx
+++ b/Results/YFJS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\shj\result\1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883FEAD5-FAFB-427B-9C1A-694B1F8C5A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A5AC0B-C91E-46E9-85F1-B8DD3BF7D192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10845" yWindow="2550" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="2" r:id="rId1"/>
@@ -283,7 +283,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -306,12 +306,6 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -322,12 +316,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -626,129 +614,129 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21086D8F-211A-4712-B26F-250F9EE7122A}">
   <dimension ref="A1:AB33"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="9.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="16" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="16" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="16" t="s">
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="16" t="s">
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11" t="s">
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11" t="s">
+      <c r="I2" s="9"/>
+      <c r="J2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11" t="s">
+      <c r="N2" s="9"/>
+      <c r="O2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="R2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11" t="s">
+      <c r="S2" s="9"/>
+      <c r="T2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="U2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="11" t="s">
+      <c r="V2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="W2" s="11" t="s">
+      <c r="W2" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="5">
         <v>2.6</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="2">
         <v>773</v>
       </c>
       <c r="F3" s="4">
@@ -757,10 +745,10 @@
       <c r="G3" s="5">
         <v>0</v>
       </c>
-      <c r="H3" s="4">
-        <v>2</v>
-      </c>
-      <c r="J3" s="15">
+      <c r="H3" s="5">
+        <v>2.12</v>
+      </c>
+      <c r="J3" s="2">
         <v>773</v>
       </c>
       <c r="K3" s="4">
@@ -769,10 +757,10 @@
       <c r="L3" s="7">
         <v>0</v>
       </c>
-      <c r="M3" s="3">
-        <v>2</v>
-      </c>
-      <c r="O3" s="15">
+      <c r="M3" s="7">
+        <v>3.27</v>
+      </c>
+      <c r="O3" s="2">
         <v>773</v>
       </c>
       <c r="P3" s="4">
@@ -781,35 +769,35 @@
       <c r="Q3" s="7">
         <v>0</v>
       </c>
-      <c r="R3" s="3">
-        <v>3</v>
-      </c>
-      <c r="T3" s="15">
+      <c r="R3" s="7">
+        <v>2.37</v>
+      </c>
+      <c r="T3" s="2">
         <v>773</v>
       </c>
-      <c r="U3" s="15">
+      <c r="U3" s="2">
         <v>773</v>
       </c>
       <c r="V3" s="7">
         <v>0</v>
       </c>
-      <c r="W3" s="3">
-        <v>1</v>
+      <c r="W3" s="7">
+        <v>1.37</v>
       </c>
       <c r="AA3" s="7"/>
       <c r="AB3" s="3"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="5">
         <v>2.6</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="2">
         <v>825</v>
       </c>
       <c r="F4" s="4">
@@ -818,10 +806,10 @@
       <c r="G4" s="5">
         <v>0</v>
       </c>
-      <c r="H4" s="4">
-        <v>1</v>
-      </c>
-      <c r="J4" s="15">
+      <c r="H4" s="5">
+        <v>1.37</v>
+      </c>
+      <c r="J4" s="2">
         <v>825</v>
       </c>
       <c r="K4" s="4">
@@ -830,10 +818,10 @@
       <c r="L4" s="7">
         <v>0</v>
       </c>
-      <c r="M4" s="3">
-        <v>1</v>
-      </c>
-      <c r="O4" s="15">
+      <c r="M4" s="7">
+        <v>2.15</v>
+      </c>
+      <c r="O4" s="2">
         <v>825</v>
       </c>
       <c r="P4" s="4">
@@ -842,35 +830,35 @@
       <c r="Q4" s="7">
         <v>0</v>
       </c>
-      <c r="R4" s="3">
-        <v>2</v>
-      </c>
-      <c r="T4" s="15">
+      <c r="R4" s="7">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="T4" s="2">
         <v>825</v>
       </c>
-      <c r="U4" s="15">
+      <c r="U4" s="2">
         <v>825</v>
       </c>
       <c r="V4" s="7">
         <v>0</v>
       </c>
-      <c r="W4" s="3">
-        <v>1</v>
+      <c r="W4" s="7">
+        <v>1.1499999999999999</v>
       </c>
       <c r="AA4" s="7"/>
       <c r="AB4" s="3"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="5">
         <v>2.63</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="2">
         <v>347</v>
       </c>
       <c r="F5" s="4">
@@ -879,10 +867,10 @@
       <c r="G5" s="5">
         <v>0</v>
       </c>
-      <c r="H5" s="4">
-        <v>1</v>
-      </c>
-      <c r="J5" s="15">
+      <c r="H5" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="J5" s="2">
         <v>347</v>
       </c>
       <c r="K5" s="4">
@@ -891,10 +879,10 @@
       <c r="L5" s="7">
         <v>0</v>
       </c>
-      <c r="M5" s="3">
-        <v>0</v>
-      </c>
-      <c r="O5" s="15">
+      <c r="M5" s="7">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="O5" s="2">
         <v>347</v>
       </c>
       <c r="P5" s="4">
@@ -903,35 +891,35 @@
       <c r="Q5" s="7">
         <v>0</v>
       </c>
-      <c r="R5" s="3">
-        <v>0</v>
-      </c>
-      <c r="T5" s="15">
+      <c r="R5" s="7">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T5" s="2">
         <v>347</v>
       </c>
-      <c r="U5" s="15">
+      <c r="U5" s="2">
         <v>347</v>
       </c>
       <c r="V5" s="7">
         <v>0</v>
       </c>
-      <c r="W5" s="3">
-        <v>0</v>
+      <c r="W5" s="7">
+        <v>0.28999999999999998</v>
       </c>
       <c r="AA5" s="7"/>
       <c r="AB5" s="3"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="5">
         <v>2.54</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="2">
         <v>390</v>
       </c>
       <c r="F6" s="4">
@@ -940,10 +928,10 @@
       <c r="G6" s="5">
         <v>0</v>
       </c>
-      <c r="H6" s="4">
-        <v>1</v>
-      </c>
-      <c r="J6" s="15">
+      <c r="H6" s="5">
+        <v>1.29</v>
+      </c>
+      <c r="J6" s="2">
         <v>390</v>
       </c>
       <c r="K6" s="4">
@@ -952,10 +940,10 @@
       <c r="L6" s="7">
         <v>0</v>
       </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-      <c r="O6" s="15">
+      <c r="M6" s="7">
+        <v>1.42</v>
+      </c>
+      <c r="O6" s="2">
         <v>390</v>
       </c>
       <c r="P6" s="4">
@@ -964,35 +952,35 @@
       <c r="Q6" s="7">
         <v>0</v>
       </c>
-      <c r="R6" s="3">
-        <v>1</v>
-      </c>
-      <c r="T6" s="15">
+      <c r="R6" s="7">
+        <v>0.42</v>
+      </c>
+      <c r="T6" s="2">
         <v>390</v>
       </c>
-      <c r="U6" s="15">
+      <c r="U6" s="2">
         <v>390</v>
       </c>
       <c r="V6" s="7">
         <v>0</v>
       </c>
-      <c r="W6" s="3">
-        <v>1</v>
+      <c r="W6" s="7">
+        <v>1.42</v>
       </c>
       <c r="AA6" s="7"/>
       <c r="AB6" s="3"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="5">
         <v>2.5299999999999998</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="2">
         <v>445</v>
       </c>
       <c r="F7" s="4">
@@ -1001,10 +989,10 @@
       <c r="G7" s="5">
         <v>0</v>
       </c>
-      <c r="H7" s="4">
-        <v>4</v>
-      </c>
-      <c r="J7" s="15">
+      <c r="H7" s="5">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="J7" s="2">
         <v>445</v>
       </c>
       <c r="K7" s="4">
@@ -1013,10 +1001,10 @@
       <c r="L7" s="7">
         <v>0</v>
       </c>
-      <c r="M7" s="3">
-        <v>4</v>
-      </c>
-      <c r="O7" s="15">
+      <c r="M7" s="7">
+        <v>2.08</v>
+      </c>
+      <c r="O7" s="2">
         <v>445</v>
       </c>
       <c r="P7" s="4">
@@ -1025,35 +1013,35 @@
       <c r="Q7" s="7">
         <v>0</v>
       </c>
-      <c r="R7" s="3">
-        <v>2</v>
-      </c>
-      <c r="T7" s="15">
+      <c r="R7" s="7">
+        <v>4.08</v>
+      </c>
+      <c r="T7" s="2">
         <v>445</v>
       </c>
-      <c r="U7" s="15">
+      <c r="U7" s="2">
         <v>445</v>
       </c>
       <c r="V7" s="7">
         <v>0</v>
       </c>
-      <c r="W7" s="3">
-        <v>1</v>
+      <c r="W7" s="7">
+        <v>1.08</v>
       </c>
       <c r="AA7" s="7"/>
       <c r="AB7" s="3"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="5">
         <v>2.64</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="2">
         <v>446</v>
       </c>
       <c r="F8" s="4">
@@ -1062,8 +1050,8 @@
       <c r="G8" s="5">
         <v>0</v>
       </c>
-      <c r="H8" s="4">
-        <v>2278</v>
+      <c r="H8" s="5">
+        <v>2278.41</v>
       </c>
       <c r="J8" s="6">
         <v>446</v>
@@ -1074,8 +1062,8 @@
       <c r="L8" s="7">
         <v>0</v>
       </c>
-      <c r="M8" s="3">
-        <v>44</v>
+      <c r="M8" s="7">
+        <v>3.31</v>
       </c>
       <c r="O8" s="6">
         <v>446</v>
@@ -1086,8 +1074,8 @@
       <c r="Q8" s="7">
         <v>0</v>
       </c>
-      <c r="R8" s="3">
-        <v>3</v>
+      <c r="R8" s="7">
+        <v>44.31</v>
       </c>
       <c r="T8" s="6">
         <v>446</v>
@@ -1098,25 +1086,25 @@
       <c r="V8" s="7">
         <v>0</v>
       </c>
-      <c r="W8" s="3">
-        <v>3</v>
+      <c r="W8" s="7">
+        <v>3.31</v>
       </c>
       <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
       <c r="AA8" s="7"/>
       <c r="AB8" s="3"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="5">
         <v>2.58</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="2">
         <v>444</v>
       </c>
       <c r="F9" s="4">
@@ -1125,8 +1113,8 @@
       <c r="G9" s="5">
         <v>0</v>
       </c>
-      <c r="H9" s="4">
-        <v>18</v>
+      <c r="H9" s="5">
+        <v>18.079999999999998</v>
       </c>
       <c r="J9" s="6">
         <v>444</v>
@@ -1137,8 +1125,8 @@
       <c r="L9" s="7">
         <v>0</v>
       </c>
-      <c r="M9" s="3">
-        <v>8</v>
+      <c r="M9" s="7">
+        <v>1.19</v>
       </c>
       <c r="O9" s="6">
         <v>444</v>
@@ -1149,8 +1137,8 @@
       <c r="Q9" s="7">
         <v>0</v>
       </c>
-      <c r="R9" s="3">
-        <v>1</v>
+      <c r="R9" s="7">
+        <v>8.19</v>
       </c>
       <c r="T9" s="6">
         <v>444</v>
@@ -1161,25 +1149,25 @@
       <c r="V9" s="7">
         <v>0</v>
       </c>
-      <c r="W9" s="3">
-        <v>1</v>
+      <c r="W9" s="7">
+        <v>1.19</v>
       </c>
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
       <c r="AA9" s="7"/>
       <c r="AB9" s="3"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="5">
         <v>2.78</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="2">
         <v>353</v>
       </c>
       <c r="F10" s="4">
@@ -1188,8 +1176,8 @@
       <c r="G10" s="5">
         <v>0</v>
       </c>
-      <c r="H10" s="4">
-        <v>1</v>
+      <c r="H10" s="5">
+        <v>1.34</v>
       </c>
       <c r="J10" s="6">
         <v>353</v>
@@ -1200,8 +1188,8 @@
       <c r="L10" s="7">
         <v>0</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
+      <c r="M10" s="7">
+        <v>1.05</v>
       </c>
       <c r="O10" s="6">
         <v>353</v>
@@ -1212,8 +1200,8 @@
       <c r="Q10" s="7">
         <v>0</v>
       </c>
-      <c r="R10" s="3">
-        <v>1</v>
+      <c r="R10" s="7">
+        <v>0.05</v>
       </c>
       <c r="T10" s="6">
         <v>353</v>
@@ -1224,25 +1212,25 @@
       <c r="V10" s="7">
         <v>0</v>
       </c>
-      <c r="W10" s="3">
-        <v>0</v>
+      <c r="W10" s="7">
+        <v>0.05</v>
       </c>
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
       <c r="AA10" s="7"/>
       <c r="AB10" s="3"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="5">
         <v>6.08</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="2">
         <v>242</v>
       </c>
       <c r="F11" s="4">
@@ -1251,8 +1239,8 @@
       <c r="G11" s="5">
         <v>0</v>
       </c>
-      <c r="H11" s="4">
-        <v>6</v>
+      <c r="H11" s="5">
+        <v>6.19</v>
       </c>
       <c r="J11" s="6">
         <v>242</v>
@@ -1263,8 +1251,8 @@
       <c r="L11" s="7">
         <v>0</v>
       </c>
-      <c r="M11" s="3">
-        <v>2</v>
+      <c r="M11" s="7">
+        <v>2.23</v>
       </c>
       <c r="O11" s="6">
         <v>242</v>
@@ -1275,8 +1263,8 @@
       <c r="Q11" s="7">
         <v>0</v>
       </c>
-      <c r="R11" s="3">
-        <v>2</v>
+      <c r="R11" s="7">
+        <v>2.23</v>
       </c>
       <c r="T11" s="6">
         <v>242</v>
@@ -1287,25 +1275,25 @@
       <c r="V11" s="7">
         <v>0</v>
       </c>
-      <c r="W11" s="3">
-        <v>0</v>
+      <c r="W11" s="7">
+        <v>0.23</v>
       </c>
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
       <c r="AA11" s="7"/>
       <c r="AB11" s="3"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C12" s="5">
         <v>2.83</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="2">
         <v>399</v>
       </c>
       <c r="F12" s="4">
@@ -1314,8 +1302,8 @@
       <c r="G12" s="5">
         <v>0</v>
       </c>
-      <c r="H12" s="4">
-        <v>2</v>
+      <c r="H12" s="5">
+        <v>2.35</v>
       </c>
       <c r="J12" s="6">
         <v>399</v>
@@ -1326,8 +1314,8 @@
       <c r="L12" s="7">
         <v>0</v>
       </c>
-      <c r="M12" s="3">
-        <v>2</v>
+      <c r="M12" s="7">
+        <v>2.41</v>
       </c>
       <c r="O12" s="6">
         <v>399</v>
@@ -1338,8 +1326,8 @@
       <c r="Q12" s="7">
         <v>0</v>
       </c>
-      <c r="R12" s="3">
-        <v>2</v>
+      <c r="R12" s="7">
+        <v>2.41</v>
       </c>
       <c r="T12" s="6">
         <v>399</v>
@@ -1350,25 +1338,25 @@
       <c r="V12" s="7">
         <v>0</v>
       </c>
-      <c r="W12" s="3">
-        <v>1</v>
+      <c r="W12" s="7">
+        <v>1.41</v>
       </c>
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
       <c r="AA12" s="7"/>
       <c r="AB12" s="3"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="5">
         <v>2.68</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="2">
         <v>526</v>
       </c>
       <c r="F13" s="4">
@@ -1377,8 +1365,8 @@
       <c r="G13" s="5">
         <v>0</v>
       </c>
-      <c r="H13" s="4">
-        <v>6</v>
+      <c r="H13" s="5">
+        <v>6.02</v>
       </c>
       <c r="J13" s="6">
         <v>526</v>
@@ -1389,8 +1377,8 @@
       <c r="L13" s="7">
         <v>0</v>
       </c>
-      <c r="M13" s="3">
-        <v>2</v>
+      <c r="M13" s="7">
+        <v>5.12</v>
       </c>
       <c r="O13" s="6">
         <v>526</v>
@@ -1401,8 +1389,8 @@
       <c r="Q13" s="7">
         <v>0</v>
       </c>
-      <c r="R13" s="3">
-        <v>5</v>
+      <c r="R13" s="7">
+        <v>2.12</v>
       </c>
       <c r="T13" s="6">
         <v>526</v>
@@ -1413,25 +1401,25 @@
       <c r="V13" s="7">
         <v>0</v>
       </c>
-      <c r="W13" s="3">
-        <v>1</v>
+      <c r="W13" s="7">
+        <v>1.1200000000000001</v>
       </c>
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
       <c r="AA13" s="7"/>
       <c r="AB13" s="3"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C14" s="5">
         <v>2.66</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="2">
         <v>512</v>
       </c>
       <c r="F14" s="4">
@@ -1440,8 +1428,8 @@
       <c r="G14" s="5">
         <v>0</v>
       </c>
-      <c r="H14" s="4">
-        <v>15</v>
+      <c r="H14" s="5">
+        <v>15.27</v>
       </c>
       <c r="J14" s="6">
         <v>512</v>
@@ -1452,8 +1440,8 @@
       <c r="L14" s="7">
         <v>0</v>
       </c>
-      <c r="M14" s="3">
-        <v>6</v>
+      <c r="M14" s="7">
+        <v>13.27</v>
       </c>
       <c r="O14" s="6">
         <v>512</v>
@@ -1464,8 +1452,8 @@
       <c r="Q14" s="7">
         <v>0</v>
       </c>
-      <c r="R14" s="3">
-        <v>13</v>
+      <c r="R14" s="7">
+        <v>6.27</v>
       </c>
       <c r="T14" s="6">
         <v>512</v>
@@ -1476,25 +1464,25 @@
       <c r="V14" s="7">
         <v>0</v>
       </c>
-      <c r="W14" s="3">
-        <v>3</v>
+      <c r="W14" s="7">
+        <v>3.27</v>
       </c>
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
       <c r="AA14" s="7"/>
       <c r="AB14" s="3"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C15" s="5">
         <v>2.74</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="2">
         <v>405</v>
       </c>
       <c r="F15" s="4">
@@ -1503,8 +1491,8 @@
       <c r="G15" s="5">
         <v>0</v>
       </c>
-      <c r="H15" s="4">
-        <v>14</v>
+      <c r="H15" s="5">
+        <v>14.14</v>
       </c>
       <c r="J15" s="6">
         <v>405</v>
@@ -1515,8 +1503,8 @@
       <c r="L15" s="7">
         <v>0</v>
       </c>
-      <c r="M15" s="3">
-        <v>5</v>
+      <c r="M15" s="7">
+        <v>8.14</v>
       </c>
       <c r="O15" s="6">
         <v>405</v>
@@ -1527,8 +1515,8 @@
       <c r="Q15" s="7">
         <v>0</v>
       </c>
-      <c r="R15" s="3">
-        <v>8</v>
+      <c r="R15" s="7">
+        <v>5.14</v>
       </c>
       <c r="T15" s="6">
         <v>405</v>
@@ -1539,25 +1527,25 @@
       <c r="V15" s="7">
         <v>0</v>
       </c>
-      <c r="W15" s="3">
-        <v>1</v>
+      <c r="W15" s="7">
+        <v>1.1399999999999999</v>
       </c>
       <c r="Y15" s="6"/>
       <c r="Z15" s="6"/>
       <c r="AA15" s="7"/>
       <c r="AB15" s="3"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C16" s="5">
         <v>2.9</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="2">
         <v>1317</v>
       </c>
       <c r="F16" s="4">
@@ -1566,8 +1554,8 @@
       <c r="G16" s="5">
         <v>0</v>
       </c>
-      <c r="H16" s="4">
-        <v>60</v>
+      <c r="H16" s="5">
+        <v>60.39</v>
       </c>
       <c r="J16" s="6">
         <v>1317</v>
@@ -1578,8 +1566,8 @@
       <c r="L16" s="7">
         <v>0</v>
       </c>
-      <c r="M16" s="3">
-        <v>6</v>
+      <c r="M16" s="7">
+        <v>48.39</v>
       </c>
       <c r="O16" s="6">
         <v>1317</v>
@@ -1590,8 +1578,8 @@
       <c r="Q16" s="7">
         <v>0</v>
       </c>
-      <c r="R16" s="3">
-        <v>48</v>
+      <c r="R16" s="7">
+        <v>6.39</v>
       </c>
       <c r="T16" s="6">
         <v>1317</v>
@@ -1602,25 +1590,25 @@
       <c r="V16" s="7">
         <v>0</v>
       </c>
-      <c r="W16" s="3">
-        <v>2</v>
+      <c r="W16" s="7">
+        <v>2.39</v>
       </c>
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
       <c r="AA16" s="7"/>
       <c r="AB16" s="3"/>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C17" s="5">
         <v>2.93</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="2">
         <v>1239</v>
       </c>
       <c r="F17" s="4">
@@ -1629,8 +1617,8 @@
       <c r="G17" s="5">
         <v>0</v>
       </c>
-      <c r="H17" s="4">
-        <v>119</v>
+      <c r="H17" s="5">
+        <v>119.17</v>
       </c>
       <c r="J17" s="6">
         <v>1239</v>
@@ -1641,8 +1629,8 @@
       <c r="L17" s="7">
         <v>0</v>
       </c>
-      <c r="M17" s="3">
-        <v>31</v>
+      <c r="M17" s="7">
+        <v>52.17</v>
       </c>
       <c r="O17" s="6">
         <v>1239</v>
@@ -1653,8 +1641,8 @@
       <c r="Q17" s="7">
         <v>0</v>
       </c>
-      <c r="R17" s="3">
-        <v>52</v>
+      <c r="R17" s="7">
+        <v>31.17</v>
       </c>
       <c r="T17" s="6">
         <v>1239</v>
@@ -1665,25 +1653,25 @@
       <c r="V17" s="7">
         <v>0</v>
       </c>
-      <c r="W17" s="3">
-        <v>2</v>
+      <c r="W17" s="7">
+        <v>2.17</v>
       </c>
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
       <c r="AA17" s="7"/>
       <c r="AB17" s="3"/>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="5">
         <v>2.86</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="2">
         <v>1222</v>
       </c>
       <c r="F18" s="4">
@@ -1692,8 +1680,8 @@
       <c r="G18" s="5">
         <v>0</v>
       </c>
-      <c r="H18" s="4">
-        <v>470</v>
+      <c r="H18" s="5">
+        <v>470.33</v>
       </c>
       <c r="J18" s="6">
         <v>1222</v>
@@ -1704,8 +1692,8 @@
       <c r="L18" s="7">
         <v>0</v>
       </c>
-      <c r="M18" s="3">
-        <v>97</v>
+      <c r="M18" s="7">
+        <v>206.33</v>
       </c>
       <c r="O18" s="6">
         <v>1222</v>
@@ -1716,8 +1704,8 @@
       <c r="Q18" s="7">
         <v>0</v>
       </c>
-      <c r="R18" s="3">
-        <v>206</v>
+      <c r="R18" s="7">
+        <v>97.33</v>
       </c>
       <c r="T18" s="6">
         <v>1222</v>
@@ -1728,25 +1716,25 @@
       <c r="V18" s="7">
         <v>0</v>
       </c>
-      <c r="W18" s="3">
-        <v>24</v>
+      <c r="W18" s="7">
+        <v>24.33</v>
       </c>
       <c r="Y18" s="6"/>
       <c r="Z18" s="6"/>
       <c r="AA18" s="7"/>
       <c r="AB18" s="3"/>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C19" s="5">
         <v>4.5999999999999996</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="2">
         <v>1133</v>
       </c>
       <c r="F19" s="4">
@@ -1755,8 +1743,8 @@
       <c r="G19" s="5">
         <v>0</v>
       </c>
-      <c r="H19" s="4">
-        <v>787</v>
+      <c r="H19" s="5">
+        <v>787.06</v>
       </c>
       <c r="J19" s="6">
         <v>1133</v>
@@ -1767,8 +1755,8 @@
       <c r="L19" s="7">
         <v>0</v>
       </c>
-      <c r="M19" s="3">
-        <v>291</v>
+      <c r="M19" s="7">
+        <v>313.06</v>
       </c>
       <c r="O19" s="6">
         <v>1133</v>
@@ -1779,8 +1767,8 @@
       <c r="Q19" s="7">
         <v>0</v>
       </c>
-      <c r="R19" s="3">
-        <v>313</v>
+      <c r="R19" s="7">
+        <v>291.06</v>
       </c>
       <c r="T19" s="6">
         <v>1133</v>
@@ -1791,25 +1779,25 @@
       <c r="V19" s="7">
         <v>0</v>
       </c>
-      <c r="W19" s="3">
-        <v>3</v>
+      <c r="W19" s="7">
+        <v>3.06</v>
       </c>
       <c r="Y19" s="6"/>
       <c r="Z19" s="6"/>
       <c r="AA19" s="7"/>
       <c r="AB19" s="3"/>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C20" s="5">
         <v>4.71</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="2">
         <v>1220</v>
       </c>
       <c r="F20" s="4">
@@ -1818,8 +1806,8 @@
       <c r="G20" s="5">
         <v>0</v>
       </c>
-      <c r="H20" s="4">
-        <v>2157</v>
+      <c r="H20" s="5">
+        <v>2157.21</v>
       </c>
       <c r="J20" s="6">
         <v>1220</v>
@@ -1830,8 +1818,8 @@
       <c r="L20" s="7">
         <v>0</v>
       </c>
-      <c r="M20" s="3">
-        <v>184</v>
+      <c r="M20" s="7">
+        <v>295.20999999999998</v>
       </c>
       <c r="O20" s="6">
         <v>1220</v>
@@ -1842,8 +1830,8 @@
       <c r="Q20" s="7">
         <v>0</v>
       </c>
-      <c r="R20" s="3">
-        <v>295</v>
+      <c r="R20" s="7">
+        <v>184.21</v>
       </c>
       <c r="T20" s="6">
         <v>1220</v>
@@ -1854,25 +1842,25 @@
       <c r="V20" s="7">
         <v>0</v>
       </c>
-      <c r="W20" s="3">
-        <v>2</v>
+      <c r="W20" s="7">
+        <v>2.21</v>
       </c>
       <c r="Y20" s="6"/>
       <c r="Z20" s="6"/>
       <c r="AA20" s="7"/>
       <c r="AB20" s="3"/>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C21" s="5">
         <v>4.66</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="2">
         <v>1016</v>
       </c>
       <c r="F21" s="4">
@@ -1881,8 +1869,8 @@
       <c r="G21" s="5">
         <v>8.86</v>
       </c>
-      <c r="H21" s="4">
-        <v>3600</v>
+      <c r="H21" s="5">
+        <v>3600.12</v>
       </c>
       <c r="J21" s="6">
         <v>943</v>
@@ -1893,8 +1881,8 @@
       <c r="L21" s="7">
         <v>1.8</v>
       </c>
-      <c r="M21" s="3">
-        <v>3600</v>
+      <c r="M21" s="7">
+        <v>3600.18</v>
       </c>
       <c r="O21" s="6">
         <v>943</v>
@@ -1905,8 +1893,8 @@
       <c r="Q21" s="7">
         <v>1.8</v>
       </c>
-      <c r="R21" s="3">
-        <v>3600</v>
+      <c r="R21" s="7">
+        <v>3600.15</v>
       </c>
       <c r="T21" s="6">
         <v>926</v>
@@ -1917,25 +1905,25 @@
       <c r="V21" s="7">
         <v>0</v>
       </c>
-      <c r="W21" s="3">
-        <v>22</v>
+      <c r="W21" s="7">
+        <v>22.18</v>
       </c>
       <c r="Y21" s="6"/>
       <c r="Z21" s="6"/>
       <c r="AA21" s="7"/>
       <c r="AB21" s="3"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C22" s="5">
         <v>4.6500000000000004</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="2">
         <v>1002</v>
       </c>
       <c r="F22" s="4">
@@ -1944,8 +1932,8 @@
       <c r="G22" s="5">
         <v>3.39</v>
       </c>
-      <c r="H22" s="4">
-        <v>3600</v>
+      <c r="H22" s="5">
+        <v>3600.37</v>
       </c>
       <c r="J22" s="6">
         <v>974</v>
@@ -1956,8 +1944,8 @@
       <c r="L22" s="7">
         <v>0.62</v>
       </c>
-      <c r="M22" s="3">
-        <v>3600</v>
+      <c r="M22" s="7">
+        <v>3600.04</v>
       </c>
       <c r="O22" s="6">
         <v>968</v>
@@ -1968,7 +1956,7 @@
       <c r="Q22" s="7">
         <v>0</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R22" s="7">
         <v>1972</v>
       </c>
       <c r="T22" s="6">
@@ -1980,70 +1968,70 @@
       <c r="V22" s="7">
         <v>0</v>
       </c>
-      <c r="W22" s="3">
-        <v>15</v>
+      <c r="W22" s="7">
+        <v>15.29</v>
       </c>
       <c r="Y22" s="6"/>
       <c r="Z22" s="6"/>
       <c r="AA22" s="7"/>
       <c r="AB22" s="3"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="13">
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="11">
         <f>AVERAGE(G3:G22)</f>
         <v>0.61250000000000004</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H23" s="11">
         <f>AVERAGE(H3:H22)</f>
-        <v>657.1</v>
-      </c>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="13">
+        <v>657.32549999999992</v>
+      </c>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="11">
         <f>AVERAGE(L3:L22)</f>
         <v>0.121</v>
       </c>
-      <c r="M23" s="14">
+      <c r="M23" s="11">
         <f>AVERAGE(M3:M22)</f>
-        <v>394.25</v>
-      </c>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="13">
+        <v>408.06550000000004</v>
+      </c>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="11">
         <f>AVERAGE(Q3:Q22)</f>
         <v>0.09</v>
       </c>
-      <c r="R23" s="14">
+      <c r="R23" s="11">
         <f>AVERAGE(R3:R22)</f>
-        <v>326.45</v>
-      </c>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="13">
+        <v>313.06700000000001</v>
+      </c>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="11">
         <f>AVERAGE(V3:V22)</f>
         <v>0</v>
       </c>
-      <c r="W23" s="14">
+      <c r="W23" s="11">
         <f>AVERAGE(W3:W22)</f>
-        <v>4.2</v>
+        <v>4.4329999999999998</v>
       </c>
       <c r="Y23" s="6"/>
       <c r="Z23" s="6"/>
       <c r="AA23" s="7"/>
       <c r="AB23" s="3"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2052,55 +2040,55 @@
       <c r="AA24" s="5"/>
       <c r="AB24" s="3"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="Y25" s="6"/>
       <c r="Z25" s="6"/>
       <c r="AA25" s="7"/>
       <c r="AB25" s="3"/>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="Y26" s="6"/>
       <c r="Z26" s="6"/>
       <c r="AA26" s="7"/>
       <c r="AB26" s="3"/>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="Y27" s="6"/>
       <c r="Z27" s="6"/>
       <c r="AA27" s="7"/>
       <c r="AB27" s="3"/>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="Y28" s="6"/>
       <c r="Z28" s="6"/>
       <c r="AA28" s="7"/>
       <c r="AB28" s="3"/>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="Y29" s="6"/>
       <c r="Z29" s="6"/>
       <c r="AA29" s="7"/>
       <c r="AB29" s="3"/>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="Y30" s="6"/>
       <c r="Z30" s="6"/>
       <c r="AA30" s="7"/>
       <c r="AB30" s="3"/>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="Y31" s="6"/>
       <c r="Z31" s="6"/>
       <c r="AA31" s="7"/>
       <c r="AB31" s="3"/>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="Y32" s="6"/>
       <c r="Z32" s="6"/>
       <c r="AA32" s="7"/>
       <c r="AB32" s="3"/>
     </row>
-    <row r="33" spans="27:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="27:28" x14ac:dyDescent="0.2">
       <c r="AA33" s="5"/>
       <c r="AB33" s="4"/>
     </row>
@@ -2127,106 +2115,106 @@
   <dimension ref="A1:AB33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="9.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="16" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="16" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="16" t="s">
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11" t="s">
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11" t="s">
+      <c r="I2" s="9"/>
+      <c r="J2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11" t="s">
+      <c r="N2" s="9"/>
+      <c r="O2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="R2" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="5">
@@ -2241,11 +2229,10 @@
       <c r="G3" s="5">
         <v>7.12</v>
       </c>
-      <c r="H3" s="9">
-        <v>3600</v>
-      </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="8">
+      <c r="H3" s="7">
+        <v>3600.12</v>
+      </c>
+      <c r="J3" s="6">
         <v>780</v>
       </c>
       <c r="K3" s="4">
@@ -2254,8 +2241,8 @@
       <c r="L3" s="7">
         <v>7.95</v>
       </c>
-      <c r="M3" s="9">
-        <v>3600</v>
+      <c r="M3" s="7">
+        <v>3600.2</v>
       </c>
       <c r="O3" s="6">
         <v>773</v>
@@ -2266,19 +2253,19 @@
       <c r="Q3" s="7">
         <v>0</v>
       </c>
-      <c r="R3" s="3">
-        <v>1</v>
+      <c r="R3" s="7">
+        <v>1.37</v>
       </c>
       <c r="V3" s="7"/>
       <c r="W3" s="3"/>
       <c r="AA3" s="7"/>
       <c r="AB3" s="3"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="5">
@@ -2293,11 +2280,10 @@
       <c r="G4" s="5">
         <v>4.05</v>
       </c>
-      <c r="H4" s="4">
-        <v>3600</v>
-      </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="8">
+      <c r="H4" s="5">
+        <v>3600.02</v>
+      </c>
+      <c r="J4" s="6">
         <v>845</v>
       </c>
       <c r="K4" s="4">
@@ -2306,8 +2292,8 @@
       <c r="L4" s="7">
         <v>4.7300000000000004</v>
       </c>
-      <c r="M4" s="9">
-        <v>3600</v>
+      <c r="M4" s="7">
+        <v>3600.3</v>
       </c>
       <c r="O4" s="6">
         <v>825</v>
@@ -2318,19 +2304,19 @@
       <c r="Q4" s="7">
         <v>0</v>
       </c>
-      <c r="R4" s="3">
-        <v>1</v>
+      <c r="R4" s="7">
+        <v>1.1499999999999999</v>
       </c>
       <c r="V4" s="7"/>
       <c r="W4" s="3"/>
       <c r="AA4" s="7"/>
       <c r="AB4" s="3"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="5">
@@ -2345,10 +2331,9 @@
       <c r="G5" s="5">
         <v>0</v>
       </c>
-      <c r="H5" s="4">
-        <v>660</v>
-      </c>
-      <c r="I5" s="15"/>
+      <c r="H5" s="5">
+        <v>660.27</v>
+      </c>
       <c r="J5" s="6">
         <v>347</v>
       </c>
@@ -2358,8 +2343,8 @@
       <c r="L5" s="7">
         <v>0</v>
       </c>
-      <c r="M5" s="9">
-        <v>167</v>
+      <c r="M5" s="7">
+        <v>166.5</v>
       </c>
       <c r="O5" s="6">
         <v>347</v>
@@ -2370,19 +2355,19 @@
       <c r="Q5" s="7">
         <v>0</v>
       </c>
-      <c r="R5" s="3">
-        <v>0</v>
+      <c r="R5" s="7">
+        <v>0.28999999999999998</v>
       </c>
       <c r="V5" s="7"/>
       <c r="W5" s="3"/>
       <c r="AA5" s="7"/>
       <c r="AB5" s="3"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="5">
@@ -2397,10 +2382,9 @@
       <c r="G6" s="5">
         <v>0</v>
       </c>
-      <c r="H6" s="4">
-        <v>387</v>
-      </c>
-      <c r="I6" s="15"/>
+      <c r="H6" s="5">
+        <v>387.38</v>
+      </c>
       <c r="J6" s="6">
         <v>390</v>
       </c>
@@ -2410,8 +2394,8 @@
       <c r="L6" s="7">
         <v>0</v>
       </c>
-      <c r="M6" s="9">
-        <v>129</v>
+      <c r="M6" s="7">
+        <v>128.97999999999999</v>
       </c>
       <c r="O6" s="6">
         <v>390</v>
@@ -2422,19 +2406,19 @@
       <c r="Q6" s="7">
         <v>0</v>
       </c>
-      <c r="R6" s="3">
-        <v>1</v>
+      <c r="R6" s="7">
+        <v>1.42</v>
       </c>
       <c r="V6" s="7"/>
       <c r="W6" s="3"/>
       <c r="AA6" s="7"/>
       <c r="AB6" s="3"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="5">
@@ -2449,10 +2433,9 @@
       <c r="G7" s="5">
         <v>5.31</v>
       </c>
-      <c r="H7" s="4">
-        <v>3600</v>
-      </c>
-      <c r="I7" s="15"/>
+      <c r="H7" s="5">
+        <v>3600.05</v>
+      </c>
       <c r="J7" s="6">
         <v>445</v>
       </c>
@@ -2462,8 +2445,8 @@
       <c r="L7" s="7">
         <v>0</v>
       </c>
-      <c r="M7" s="9">
-        <v>607</v>
+      <c r="M7" s="7">
+        <v>606.75</v>
       </c>
       <c r="O7" s="6">
         <v>445</v>
@@ -2474,19 +2457,19 @@
       <c r="Q7" s="7">
         <v>0</v>
       </c>
-      <c r="R7" s="3">
-        <v>1</v>
+      <c r="R7" s="7">
+        <v>1.08</v>
       </c>
       <c r="V7" s="7"/>
       <c r="W7" s="3"/>
       <c r="AA7" s="7"/>
       <c r="AB7" s="3"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="5">
@@ -2501,10 +2484,9 @@
       <c r="G8" s="5">
         <v>0.9</v>
       </c>
-      <c r="H8" s="4">
-        <v>3600</v>
-      </c>
-      <c r="I8" s="15"/>
+      <c r="H8" s="5">
+        <v>3600.02</v>
+      </c>
       <c r="J8" s="6">
         <v>446</v>
       </c>
@@ -2514,8 +2496,8 @@
       <c r="L8" s="7">
         <v>0</v>
       </c>
-      <c r="M8" s="9">
-        <v>2175</v>
+      <c r="M8" s="7">
+        <v>2174.84</v>
       </c>
       <c r="O8" s="6">
         <v>446</v>
@@ -2526,8 +2508,8 @@
       <c r="Q8" s="7">
         <v>0</v>
       </c>
-      <c r="R8" s="3">
-        <v>3</v>
+      <c r="R8" s="7">
+        <v>3.31</v>
       </c>
       <c r="T8" s="6"/>
       <c r="U8" s="6"/>
@@ -2538,17 +2520,17 @@
       <c r="AA8" s="7"/>
       <c r="AB8" s="3"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="5">
         <v>2.58</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="2">
         <v>444</v>
       </c>
       <c r="F9" s="4">
@@ -2557,11 +2539,10 @@
       <c r="G9" s="5">
         <v>0</v>
       </c>
-      <c r="H9" s="9">
-        <v>1393</v>
-      </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="8">
+      <c r="H9" s="7">
+        <v>1393.13</v>
+      </c>
+      <c r="J9" s="6">
         <v>444</v>
       </c>
       <c r="K9" s="4">
@@ -2570,8 +2551,8 @@
       <c r="L9" s="7">
         <v>0</v>
       </c>
-      <c r="M9" s="9">
-        <v>928</v>
+      <c r="M9" s="7">
+        <v>928.21</v>
       </c>
       <c r="O9" s="6">
         <v>444</v>
@@ -2582,8 +2563,8 @@
       <c r="Q9" s="7">
         <v>0</v>
       </c>
-      <c r="R9" s="3">
-        <v>1</v>
+      <c r="R9" s="7">
+        <v>1.19</v>
       </c>
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
@@ -2594,17 +2575,17 @@
       <c r="AA9" s="7"/>
       <c r="AB9" s="3"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="5">
         <v>2.78</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="2">
         <v>364</v>
       </c>
       <c r="F10" s="4">
@@ -2613,11 +2594,10 @@
       <c r="G10" s="5">
         <v>7.14</v>
       </c>
-      <c r="H10" s="9">
-        <v>3600</v>
-      </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="8">
+      <c r="H10" s="7">
+        <v>3600.03</v>
+      </c>
+      <c r="J10" s="6">
         <v>353</v>
       </c>
       <c r="K10" s="4">
@@ -2626,8 +2606,8 @@
       <c r="L10" s="7">
         <v>4.25</v>
       </c>
-      <c r="M10" s="9">
-        <v>3600</v>
+      <c r="M10" s="7">
+        <v>3600.13</v>
       </c>
       <c r="O10" s="6">
         <v>353</v>
@@ -2638,8 +2618,8 @@
       <c r="Q10" s="7">
         <v>0</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
+      <c r="R10" s="7">
+        <v>0.05</v>
       </c>
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
@@ -2650,11 +2630,11 @@
       <c r="AA10" s="7"/>
       <c r="AB10" s="3"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="5">
@@ -2669,10 +2649,9 @@
       <c r="G11" s="5">
         <v>12.5</v>
       </c>
-      <c r="H11" s="4">
-        <v>3600</v>
-      </c>
-      <c r="I11" s="15"/>
+      <c r="H11" s="5">
+        <v>3600.02</v>
+      </c>
       <c r="J11" s="6">
         <v>248</v>
       </c>
@@ -2682,8 +2661,8 @@
       <c r="L11" s="7">
         <v>6.45</v>
       </c>
-      <c r="M11" s="9">
-        <v>3600</v>
+      <c r="M11" s="7">
+        <v>3600.23</v>
       </c>
       <c r="O11" s="6">
         <v>242</v>
@@ -2694,8 +2673,8 @@
       <c r="Q11" s="7">
         <v>0</v>
       </c>
-      <c r="R11" s="3">
-        <v>0</v>
+      <c r="R11" s="7">
+        <v>0.23</v>
       </c>
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
@@ -2706,11 +2685,11 @@
       <c r="AA11" s="7"/>
       <c r="AB11" s="3"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C12" s="5">
@@ -2725,10 +2704,9 @@
       <c r="G12" s="5">
         <v>15.29</v>
       </c>
-      <c r="H12" s="4">
-        <v>3600</v>
-      </c>
-      <c r="I12" s="15"/>
+      <c r="H12" s="5">
+        <v>3600.11</v>
+      </c>
       <c r="J12" s="6">
         <v>411</v>
       </c>
@@ -2738,8 +2716,8 @@
       <c r="L12" s="7">
         <v>8.27</v>
       </c>
-      <c r="M12" s="9">
-        <v>3600</v>
+      <c r="M12" s="7">
+        <v>3600.2</v>
       </c>
       <c r="O12" s="6">
         <v>399</v>
@@ -2750,8 +2728,8 @@
       <c r="Q12" s="7">
         <v>0</v>
       </c>
-      <c r="R12" s="3">
-        <v>1</v>
+      <c r="R12" s="7">
+        <v>1.41</v>
       </c>
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
@@ -2762,17 +2740,17 @@
       <c r="AA12" s="7"/>
       <c r="AB12" s="3"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="5">
         <v>2.68</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="2">
         <v>544</v>
       </c>
       <c r="F13" s="4">
@@ -2781,11 +2759,10 @@
       <c r="G13" s="5">
         <v>6.8</v>
       </c>
-      <c r="H13" s="9">
-        <v>3600</v>
-      </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="8">
+      <c r="H13" s="7">
+        <v>3600.19</v>
+      </c>
+      <c r="J13" s="6">
         <v>534</v>
       </c>
       <c r="K13" s="4">
@@ -2794,8 +2771,8 @@
       <c r="L13" s="7">
         <v>5.0599999999999996</v>
       </c>
-      <c r="M13" s="9">
-        <v>3600</v>
+      <c r="M13" s="7">
+        <v>3600.21</v>
       </c>
       <c r="O13" s="6">
         <v>526</v>
@@ -2806,8 +2783,8 @@
       <c r="Q13" s="7">
         <v>0</v>
       </c>
-      <c r="R13" s="3">
-        <v>1</v>
+      <c r="R13" s="7">
+        <v>1.1200000000000001</v>
       </c>
       <c r="T13" s="6"/>
       <c r="U13" s="6"/>
@@ -2818,17 +2795,17 @@
       <c r="AA13" s="7"/>
       <c r="AB13" s="3"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C14" s="5">
         <v>2.66</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="2">
         <v>543</v>
       </c>
       <c r="F14" s="4">
@@ -2837,11 +2814,10 @@
       <c r="G14" s="5">
         <v>17.5</v>
       </c>
-      <c r="H14" s="9">
-        <v>3600</v>
-      </c>
-      <c r="I14" s="15"/>
-      <c r="J14" s="8">
+      <c r="H14" s="7">
+        <v>3600.13</v>
+      </c>
+      <c r="J14" s="6">
         <v>528</v>
       </c>
       <c r="K14" s="4">
@@ -2850,8 +2826,8 @@
       <c r="L14" s="7">
         <v>14.77</v>
       </c>
-      <c r="M14" s="9">
-        <v>3600</v>
+      <c r="M14" s="7">
+        <v>3600.15</v>
       </c>
       <c r="O14" s="6">
         <v>512</v>
@@ -2862,8 +2838,8 @@
       <c r="Q14" s="7">
         <v>0</v>
       </c>
-      <c r="R14" s="3">
-        <v>3</v>
+      <c r="R14" s="7">
+        <v>3.27</v>
       </c>
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
@@ -2874,11 +2850,11 @@
       <c r="AA14" s="7"/>
       <c r="AB14" s="3"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C15" s="5">
@@ -2893,10 +2869,9 @@
       <c r="G15" s="5">
         <v>17.059999999999999</v>
       </c>
-      <c r="H15" s="4">
-        <v>3600</v>
-      </c>
-      <c r="I15" s="15"/>
+      <c r="H15" s="5">
+        <v>3600.14</v>
+      </c>
       <c r="J15" s="6">
         <v>405</v>
       </c>
@@ -2906,8 +2881,8 @@
       <c r="L15" s="7">
         <v>11.31</v>
       </c>
-      <c r="M15" s="9">
-        <v>3600</v>
+      <c r="M15" s="7">
+        <v>3600.09</v>
       </c>
       <c r="O15" s="6">
         <v>405</v>
@@ -2918,8 +2893,8 @@
       <c r="Q15" s="7">
         <v>0</v>
       </c>
-      <c r="R15" s="3">
-        <v>1</v>
+      <c r="R15" s="7">
+        <v>1.1399999999999999</v>
       </c>
       <c r="T15" s="6"/>
       <c r="U15" s="6"/>
@@ -2930,11 +2905,11 @@
       <c r="AA15" s="7"/>
       <c r="AB15" s="3"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C16" s="5">
@@ -2949,10 +2924,9 @@
       <c r="G16" s="5">
         <v>0</v>
       </c>
-      <c r="H16" s="4">
-        <v>1</v>
-      </c>
-      <c r="I16" s="15"/>
+      <c r="H16" s="5">
+        <v>0.73</v>
+      </c>
       <c r="J16" s="6">
         <v>1317</v>
       </c>
@@ -2962,8 +2936,8 @@
       <c r="L16" s="7">
         <v>0</v>
       </c>
-      <c r="M16" s="9">
-        <v>11</v>
+      <c r="M16" s="7">
+        <v>10.51</v>
       </c>
       <c r="O16" s="6">
         <v>1317</v>
@@ -2974,8 +2948,8 @@
       <c r="Q16" s="7">
         <v>0</v>
       </c>
-      <c r="R16" s="3">
-        <v>2</v>
+      <c r="R16" s="7">
+        <v>2.39</v>
       </c>
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
@@ -2986,17 +2960,17 @@
       <c r="AA16" s="7"/>
       <c r="AB16" s="3"/>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C17" s="5">
         <v>2.93</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="2">
         <v>1323</v>
       </c>
       <c r="F17" s="4">
@@ -3005,11 +2979,10 @@
       <c r="G17" s="5">
         <v>6.35</v>
       </c>
-      <c r="H17" s="9">
-        <v>3600</v>
-      </c>
-      <c r="I17" s="15"/>
-      <c r="J17" s="8">
+      <c r="H17" s="7">
+        <v>3600.66</v>
+      </c>
+      <c r="J17" s="6">
         <v>1260</v>
       </c>
       <c r="K17" s="4">
@@ -3018,8 +2991,8 @@
       <c r="L17" s="7">
         <v>1.67</v>
       </c>
-      <c r="M17" s="9">
-        <v>3600</v>
+      <c r="M17" s="7">
+        <v>3600.12</v>
       </c>
       <c r="O17" s="6">
         <v>1239</v>
@@ -3030,8 +3003,8 @@
       <c r="Q17" s="7">
         <v>0</v>
       </c>
-      <c r="R17" s="3">
-        <v>2</v>
+      <c r="R17" s="7">
+        <v>2.17</v>
       </c>
       <c r="T17" s="6"/>
       <c r="U17" s="6"/>
@@ -3042,17 +3015,17 @@
       <c r="AA17" s="7"/>
       <c r="AB17" s="3"/>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="5">
         <v>2.86</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="2">
         <v>1312</v>
       </c>
       <c r="F18" s="4">
@@ -3061,11 +3034,10 @@
       <c r="G18" s="5">
         <v>9.3800000000000008</v>
       </c>
-      <c r="H18" s="9">
-        <v>3600</v>
-      </c>
-      <c r="I18" s="15"/>
-      <c r="J18" s="8">
+      <c r="H18" s="7">
+        <v>3600.14</v>
+      </c>
+      <c r="J18" s="6">
         <v>1334</v>
       </c>
       <c r="K18" s="4">
@@ -3074,8 +3046,8 @@
       <c r="L18" s="7">
         <v>10.87</v>
       </c>
-      <c r="M18" s="9">
-        <v>3600</v>
+      <c r="M18" s="7">
+        <v>3600.39</v>
       </c>
       <c r="O18" s="6">
         <v>1222</v>
@@ -3086,8 +3058,8 @@
       <c r="Q18" s="7">
         <v>0</v>
       </c>
-      <c r="R18" s="3">
-        <v>24</v>
+      <c r="R18" s="7">
+        <v>24.33</v>
       </c>
       <c r="T18" s="6"/>
       <c r="U18" s="6"/>
@@ -3098,11 +3070,11 @@
       <c r="AA18" s="7"/>
       <c r="AB18" s="3"/>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C19" s="5">
@@ -3117,10 +3089,9 @@
       <c r="G19" s="5">
         <v>0</v>
       </c>
-      <c r="H19" s="4">
-        <v>1751</v>
-      </c>
-      <c r="I19" s="15"/>
+      <c r="H19" s="5">
+        <v>1750.86</v>
+      </c>
       <c r="J19" s="6">
         <v>1133</v>
       </c>
@@ -3130,8 +3101,8 @@
       <c r="L19" s="7">
         <v>0</v>
       </c>
-      <c r="M19" s="9">
-        <v>2100</v>
+      <c r="M19" s="7">
+        <v>2100.46</v>
       </c>
       <c r="O19" s="6">
         <v>1133</v>
@@ -3142,8 +3113,8 @@
       <c r="Q19" s="7">
         <v>0</v>
       </c>
-      <c r="R19" s="3">
-        <v>3</v>
+      <c r="R19" s="7">
+        <v>3.06</v>
       </c>
       <c r="T19" s="6"/>
       <c r="U19" s="6"/>
@@ -3154,11 +3125,11 @@
       <c r="AA19" s="7"/>
       <c r="AB19" s="3"/>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C20" s="5">
@@ -3173,10 +3144,9 @@
       <c r="G20" s="5">
         <v>1.77</v>
       </c>
-      <c r="H20" s="4">
-        <v>3600</v>
-      </c>
-      <c r="I20" s="15"/>
+      <c r="H20" s="5">
+        <v>3600.25</v>
+      </c>
       <c r="J20" s="6">
         <v>1223</v>
       </c>
@@ -3186,8 +3156,8 @@
       <c r="L20" s="7">
         <v>0.25</v>
       </c>
-      <c r="M20" s="9">
-        <v>3600</v>
+      <c r="M20" s="7">
+        <v>3600.47</v>
       </c>
       <c r="O20" s="6">
         <v>1220</v>
@@ -3198,8 +3168,8 @@
       <c r="Q20" s="7">
         <v>0</v>
       </c>
-      <c r="R20" s="3">
-        <v>2</v>
+      <c r="R20" s="7">
+        <v>2.21</v>
       </c>
       <c r="T20" s="6"/>
       <c r="U20" s="6"/>
@@ -3210,17 +3180,17 @@
       <c r="AA20" s="7"/>
       <c r="AB20" s="3"/>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C21" s="5">
         <v>4.66</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="2">
         <v>1123</v>
       </c>
       <c r="F21" s="4">
@@ -3229,11 +3199,10 @@
       <c r="G21" s="5">
         <v>17.54</v>
       </c>
-      <c r="H21" s="4">
-        <v>3600</v>
-      </c>
-      <c r="I21" s="15"/>
-      <c r="J21" s="8">
+      <c r="H21" s="5">
+        <v>3600.3</v>
+      </c>
+      <c r="J21" s="6">
         <v>1057</v>
       </c>
       <c r="K21" s="4">
@@ -3242,8 +3211,8 @@
       <c r="L21" s="7">
         <v>12.39</v>
       </c>
-      <c r="M21" s="9">
-        <v>3600</v>
+      <c r="M21" s="7">
+        <v>3600.02</v>
       </c>
       <c r="O21" s="6">
         <v>926</v>
@@ -3254,8 +3223,8 @@
       <c r="Q21" s="7">
         <v>0</v>
       </c>
-      <c r="R21" s="3">
-        <v>22</v>
+      <c r="R21" s="7">
+        <v>22.18</v>
       </c>
       <c r="T21" s="6"/>
       <c r="U21" s="6"/>
@@ -3266,11 +3235,11 @@
       <c r="AA21" s="7"/>
       <c r="AB21" s="3"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C22" s="5">
@@ -3285,10 +3254,9 @@
       <c r="G22" s="5">
         <v>0</v>
       </c>
-      <c r="H22" s="4">
-        <v>3600</v>
-      </c>
-      <c r="I22" s="15"/>
+      <c r="H22" s="5">
+        <v>3600.21</v>
+      </c>
       <c r="J22" s="6">
         <v>968</v>
       </c>
@@ -3298,8 +3266,8 @@
       <c r="L22" s="7">
         <v>0</v>
       </c>
-      <c r="M22" s="9">
-        <v>2892</v>
+      <c r="M22" s="7">
+        <v>2908.81</v>
       </c>
       <c r="O22" s="6">
         <v>968</v>
@@ -3310,8 +3278,8 @@
       <c r="Q22" s="7">
         <v>0</v>
       </c>
-      <c r="R22" s="3">
-        <v>15</v>
+      <c r="R22" s="7">
+        <v>15.29</v>
       </c>
       <c r="T22" s="6"/>
       <c r="U22" s="6"/>
@@ -3322,44 +3290,44 @@
       <c r="AA22" s="7"/>
       <c r="AB22" s="3"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="13">
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="11">
         <f>AVERAGE(G3:G22)</f>
         <v>6.4354999999999993</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H23" s="11">
         <f>AVERAGE(H3:H22)</f>
-        <v>2909.6</v>
-      </c>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="13">
+        <v>2909.7380000000003</v>
+      </c>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="11">
         <f>AVERAGE(L3:L22)</f>
         <v>4.3985000000000003</v>
       </c>
-      <c r="M23" s="14">
+      <c r="M23" s="11">
         <f>AVERAGE(M3:M22)</f>
-        <v>2610.4499999999998</v>
-      </c>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="13">
+        <v>2611.3784999999998</v>
+      </c>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="11">
         <f>AVERAGE(Q3:Q22)</f>
         <v>0</v>
       </c>
-      <c r="R23" s="14">
+      <c r="R23" s="11">
         <f>AVERAGE(R3:R22)</f>
-        <v>4.2</v>
+        <v>4.4329999999999998</v>
       </c>
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
@@ -3370,7 +3338,7 @@
       <c r="AA23" s="7"/>
       <c r="AB23" s="3"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -3383,7 +3351,7 @@
       <c r="AA24" s="5"/>
       <c r="AB24" s="3"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="T25" s="6"/>
       <c r="U25" s="6"/>
       <c r="V25" s="7"/>
@@ -3393,7 +3361,7 @@
       <c r="AA25" s="7"/>
       <c r="AB25" s="3"/>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="T26" s="6"/>
       <c r="U26" s="6"/>
       <c r="V26" s="7"/>
@@ -3403,7 +3371,7 @@
       <c r="AA26" s="7"/>
       <c r="AB26" s="3"/>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
       <c r="V27" s="7"/>
@@ -3413,7 +3381,7 @@
       <c r="AA27" s="7"/>
       <c r="AB27" s="3"/>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="T28" s="6"/>
       <c r="U28" s="6"/>
       <c r="V28" s="7"/>
@@ -3423,7 +3391,7 @@
       <c r="AA28" s="7"/>
       <c r="AB28" s="3"/>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="T29" s="6"/>
       <c r="U29" s="6"/>
       <c r="V29" s="7"/>
@@ -3433,7 +3401,7 @@
       <c r="AA29" s="7"/>
       <c r="AB29" s="3"/>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="T30" s="6"/>
       <c r="U30" s="6"/>
       <c r="V30" s="7"/>
@@ -3443,7 +3411,7 @@
       <c r="AA30" s="7"/>
       <c r="AB30" s="3"/>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="T31" s="6"/>
       <c r="U31" s="6"/>
       <c r="V31" s="7"/>
@@ -3453,7 +3421,7 @@
       <c r="AA31" s="7"/>
       <c r="AB31" s="3"/>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
       <c r="V32" s="7"/>
@@ -3463,7 +3431,7 @@
       <c r="AA32" s="7"/>
       <c r="AB32" s="3"/>
     </row>
-    <row r="33" spans="22:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="22:28" x14ac:dyDescent="0.2">
       <c r="V33" s="5"/>
       <c r="W33" s="4"/>
       <c r="AA33" s="5"/>
